--- a/Marketing/pitt.roomme.xlsx
+++ b/Marketing/pitt.roomme.xlsx
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">

--- a/Marketing/pitt.roomme.xlsx
+++ b/Marketing/pitt.roomme.xlsx
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">

--- a/Marketing/pitt.roomme.xlsx
+++ b/Marketing/pitt.roomme.xlsx
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">

--- a/Marketing/pitt.roomme.xlsx
+++ b/Marketing/pitt.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">

--- a/Marketing/pitt.roomme.xlsx
+++ b/Marketing/pitt.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B424"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>maggi.schuchholz</t>
+          <t>lexa.embree</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lola_jgd_</t>
+          <t>ca.denn0</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isabelle_penny</t>
+          <t>madilynnegrady</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bridgetmillar</t>
+          <t>sam.gombiner</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>teresa_g_mole</t>
+          <t>seb_denizard21</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nkfeldman</t>
+          <t>presleymbell</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>celesterednall</t>
+          <t>nathaniathomas776</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adam_howanitz_44</t>
+          <t>chn.andrew</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ryan.mcardle68</t>
+          <t>leoboccella</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>austin.mitch04</t>
+          <t>em.zizii</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alejandro_colberg</t>
+          <t>saramiloszewski</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>maggiedowds_</t>
+          <t>zsully33</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>juliadovidio</t>
+          <t>ayyansureshkumar</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>katie_easly</t>
+          <t>gianna.weisberg</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sam.gombiner</t>
+          <t>judge_sheryl_k_munson</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tanay_durg</t>
+          <t>amethaashetty</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jienengde</t>
+          <t>andre_giannotta</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dakota_turner123</t>
+          <t>avin_fatehi</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mirandakleitz</t>
+          <t>santino_c_05</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_mariacoleman_</t>
+          <t>kirareyyes</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ca.denn0</t>
+          <t>keshikak05</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>leia.shearer</t>
+          <t>emilyshtra</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>braylon.rosinsky</t>
+          <t>sarah.ali_001</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zglavin01</t>
+          <t>rishimukherjee2023</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rahuljo28</t>
+          <t>sydneyvitko</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>flihvarchik</t>
+          <t>dharshinirajesh_</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>afsana.dhali</t>
+          <t>adi_chitre15</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jordanajavid</t>
+          <t>giannapasc</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lukaswittman</t>
+          <t>notliam_pestorious42</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>zoey.blagrove</t>
+          <t>sethklein13</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nimanshaverma</t>
+          <t>anushad_28_</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>will_mcbrier75</t>
+          <t>bryonnashay03</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jack.blaser</t>
+          <t>madi.taylor04</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sarrisgm</t>
+          <t>jiesen.ngu</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>maxsilver912</t>
+          <t>alana.tensuan</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hoban_13</t>
+          <t>c_rosenberg04</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>varshag_14</t>
+          <t>mohammad_shedeed</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>taylor.f_</t>
+          <t>josie.rf.fr</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kiara_yyu9</t>
+          <t>audreyycupp</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>priyankapatel__6</t>
+          <t>alexandra_kwiat</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>devadarsh.vijesh</t>
+          <t>nivetabharath</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>abhay_gopal1</t>
+          <t>evalinewest</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>anj.anav</t>
+          <t>kaylie.c31</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>colin_b_fink</t>
+          <t>samanthaahough</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sameer_sinha_14</t>
+          <t>joshj1678</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>liv.simonetti</t>
+          <t>tim.salmon10</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ryanleone_</t>
+          <t>bigdaddyj_76</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>trishaa_y</t>
+          <t>abby._.brady</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_sofiegill</t>
+          <t>katy.p24</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lauramattern</t>
+          <t>cass.swar.tz</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>alicia.rochaa</t>
+          <t>leahreyes_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>compaorenadege</t>
+          <t>arthshah12</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ryanengwong</t>
+          <t>ava.snyder05</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>amelia.black144</t>
+          <t>gianna_manuele</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>eddeignan</t>
+          <t>ankith.rajesh</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sara_saad_nahas</t>
+          <t>kpf143</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>isaacgildengers</t>
+          <t>lemoncellialexander</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>aditya_sungod_</t>
+          <t>eden_greenfield_</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ashlyn.coates</t>
+          <t>alex_gallagher_18</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>shaythak_</t>
+          <t>isabelle_penny</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mricci42105</t>
+          <t>only.1arin_</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nikita.venkatasamy</t>
+          <t>mackenzieniksa</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>john_papadimitriou117</t>
+          <t>d.umblebee</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>andrew.skoufis</t>
+          <t>tomasinapetragnani</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>grahamcwallace</t>
+          <t>an7ih3ro</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mackinzie.clein</t>
+          <t>rebecca.baculis</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>malavika_menon008</t>
+          <t>thevivanp</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>aj.mendelsohn</t>
+          <t>isamitrev</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dexlikechex</t>
+          <t>austin.mitch04</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>thriftsburgh</t>
+          <t>manaswikamuddam</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>adiljabriii</t>
+          <t>jeffreydratch</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>andrewkra_</t>
+          <t>ishanmalick</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>katie.tribble1</t>
+          <t>nathan_osa</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>audreyycupp</t>
+          <t>zoey.blagrove</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>liam_ryan11_</t>
+          <t>patved246</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jascarpio25</t>
+          <t>ryan.mcardle68</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>melferber</t>
+          <t>riley._.rohrer</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>emma.curran_</t>
+          <t>nealgupta802</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ho__anh</t>
+          <t>elisa_sneeringer</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>pallapothuradhika</t>
+          <t>nnova.n</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>alex_gallagher_18</t>
+          <t>mpilacik</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>plumeriatheninja</t>
+          <t>emi.tomczyk15</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>leahvinodh</t>
+          <t>noahhlee_</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>gzhang05</t>
+          <t>asiaali.485</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>kavya__tiwary</t>
+          <t>juliuspraefcke</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>josh.jackson.34</t>
+          <t>sahill.patelll</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ashleyy.32</t>
+          <t>anu_gowda023</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ankith.rajesh</t>
+          <t>umabredlmarti</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>noahlong60</t>
+          <t>kendyl_scouten</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>janamizrachy</t>
+          <t>liz_scherzer</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lilyosmun</t>
+          <t>erohwonnnn</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>francis_s4</t>
+          <t>srushti.patellll</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>shamalama_shu_shu</t>
+          <t>tima_dija_fall</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>navaerys</t>
+          <t>flankes_inan</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>meghana_karri14</t>
+          <t>connorolsonnn</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>allietro.0503</t>
+          <t>nini_c0623</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ruchakurani</t>
+          <t>guonoe06237</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>vkc_1n7f</t>
+          <t>gabriella.gracee_</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>reillykoitzsch_</t>
+          <t>tony.hoang2005</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>leoboccella</t>
+          <t>leorquigley</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>abby._.brady</t>
+          <t>jayeshedwards</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>jodiex88</t>
+          <t>tajenniferle</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>trystind38</t>
+          <t>angcarlow4.13</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>syd_gibby</t>
+          <t>kileybier0525</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>katerinazalejsky</t>
+          <t>olivia.berard</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>apatel0929</t>
+          <t>logan.gilbert999</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sarah.ali_001</t>
+          <t>gracielcook</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>hhaley_mccuee</t>
+          <t>anucha.kel</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>uchesupremacy</t>
+          <t>christopher_holtz</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>clarity_wren_clay</t>
+          <t>emmapotterr_</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>emma.conner</t>
+          <t>ben_madoff</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>favorogadimma</t>
+          <t>mandasflicss</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>222beza</t>
+          <t>lotus.mcg_</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>a_mason19</t>
+          <t>antonio_ruiznyc</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>gia.mark</t>
+          <t>nitya_gos15</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>juliasugrue</t>
+          <t>joshring20_</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>auudreyywanng</t>
+          <t>emilydudzic</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>megan.katrina</t>
+          <t>melferber</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>anna_downey78</t>
+          <t>__john__2612</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>a_body_of_water_</t>
+          <t>farrah.wengler</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>637jxssica</t>
+          <t>jacquelynramsey_</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>erinlp</t>
+          <t>a_plummtree</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jipshathakrar</t>
+          <t>ninabickell</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>juliemunko</t>
+          <t>peytonluman</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>arthshah12</t>
+          <t>jade.udzella</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>evalee0024</t>
+          <t>shaw.forrest17</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ellieyoon04</t>
+          <t>sabina_vss7</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>auntieof_11</t>
+          <t>kevin_lynch91</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>cass.swar.tz</t>
+          <t>sienavitelli</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>camy_kiser</t>
+          <t>grahamcwallace</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,2930 +1748,1660 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>gauriii.b</t>
+          <t>reall_abbya</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>__.chich.__</t>
+          <t>meihan_.chen</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jt.markovich</t>
+          <t>emmapoknis</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>eden_greenfield_</t>
+          <t>nikita.venkatasamy</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>nyki_16</t>
+          <t>charlieberlin22</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>avishi.gupta04</t>
+          <t>sophiarplatt</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>susan_nicoquinn</t>
+          <t>danit_117</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tom_demarco919</t>
+          <t>sabina.kadariya</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kateyjoness_</t>
+          <t>cda_pitt</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jen_genell12</t>
+          <t>avamaxattack</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>elayna.chari</t>
+          <t>_dhritic</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>milololiv</t>
+          <t>gal.kurulkar</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>_andylevin_</t>
+          <t>shash_sriv05</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ruchika_chandran</t>
+          <t>oakers23</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jake.sobo1</t>
+          <t>sophiapaulich</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>bcms_pitt</t>
+          <t>amadeusbelliard</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>leorquigley</t>
+          <t>s_preate5</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>zoraaabp</t>
+          <t>baylee.spinda</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>asia__lanae</t>
+          <t>hitesh.dav8</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>jlenenberg_</t>
+          <t>maddiesbinder</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>bri_9.23.04</t>
+          <t>danielsandinosalazar</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>rajeshmolakas</t>
+          <t>brie.rodrigues</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>seb_denizard21</t>
+          <t>seth__lute</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>colin__torres</t>
+          <t>kudus.d.d</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>andrea.d.vogel</t>
+          <t>ryanengwong</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>noahjud</t>
+          <t>sofiamacias._</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jamesheff13</t>
+          <t>alejandro_colberg</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>schaedlerjason</t>
+          <t>marissa.jordan1</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lillie_heise</t>
+          <t>pittlctl</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>an7ih3ro</t>
+          <t>_sharon_k__</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ti.chavi</t>
+          <t>sameer_sinha_14</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>boombayah2023</t>
+          <t>ztwang10</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>dillonlanier_</t>
+          <t>kaltratola</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>mirabelleelise</t>
+          <t>clarity_wren_clay</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>londonhanbach</t>
+          <t>alby_v456</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>lawanitah</t>
+          <t>taormina.aa</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>flankes_inan</t>
+          <t>kelsey.horner</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>the_sundancer</t>
+          <t>andrewburleigh__</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sao_pitt</t>
+          <t>nataliavdz1</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>gracegonzales9</t>
+          <t>lukaswittman</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hollybinkowski</t>
+          <t>alokaddanki</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>_jaypatle</t>
+          <t>emilygt2004</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>gabriellapepe_</t>
+          <t>abbymarshall14</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>zhong_paper59</t>
+          <t>flihvarchik</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>mamagavo</t>
+          <t>olivia_haynes_8</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>gracie.amore</t>
+          <t>jascarpio25</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>suzyketchup01</t>
+          <t>madisonsherwoodd</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>iekenney</t>
+          <t>emilytsangs</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>urvashigohel</t>
+          <t>elizabethh.russell</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>jorja_fleming</t>
+          <t>northolomew</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>nanayawwitty</t>
+          <t>_amy_burke</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>jadedchl</t>
+          <t>katie_easly</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>clare.duffy24</t>
+          <t>addyc2112</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>chris.caperelli</t>
+          <t>addiesullivan70</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>gavin_ems84</t>
+          <t>emma.mahoney</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>trlegend23</t>
+          <t>aravind_laksh06</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>shpedersen_</t>
+          <t>anya.lebouitz</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>chetna.srivastava.775</t>
+          <t>zglavin01</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hitesh.dav8</t>
+          <t>__.chich.__</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>a.schaq</t>
+          <t>a_.norf._3</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>elladecardona</t>
+          <t>virajpentapalli</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>michaelm841</t>
+          <t>alex_krausz11</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tessmadonna</t>
+          <t>nitya_vabbilireddi</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>nathanacho</t>
+          <t>arbel_levy</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>rennandesteban</t>
+          <t>kyliee.ye</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>lukew.__</t>
+          <t>isabelle_marvin</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_karajohnsonn</t>
+          <t>637jxssica</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>gminni26</t>
+          <t>plumeriatheninja</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>reaganmetague</t>
+          <t>ellie.kwak</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>lenacarr26</t>
+          <t>lekhya22</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>el_chiquitin7</t>
+          <t>thomas_bixler_0.0</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kudus.d.d</t>
+          <t>egfenstermacher</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>timcalvetti</t>
+          <t>zachcagliuso</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ishita_05_</t>
+          <t>kate_chrisco</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>demi.heston</t>
+          <t>_sam.avery_</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jaelyn.hannon</t>
+          <t>victorioussankofa26</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ayannacudennec</t>
+          <t>sarayunalamalapu</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>baxinemurger</t>
+          <t>kayleew_0815</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>lynee109</t>
+          <t>gwen_alice1</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bellaadulude</t>
+          <t>ben_markworth</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>an9ela_jiayiiii</t>
+          <t>nimanshaverma</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>dan.dausey</t>
+          <t>jadedchl</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>the_real__crisp_y_tina</t>
+          <t>declanmurphy_</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ben_markworth</t>
+          <t>lenny.lk</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>rishimukherjee2023</t>
+          <t>bennett_stickler</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>saketgamini</t>
+          <t>arvind_sundar</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>hjenniferle</t>
+          <t>jada.alvarado11</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>d_cheff428</t>
+          <t>alexa.austinn</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>cooperkid333</t>
+          <t>_sofiegill</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>emanotemma2004</t>
+          <t>_rupeshh_1</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>miakane</t>
+          <t>kesilman_kate</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>maya.jeffries</t>
+          <t>avamillard_</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>austin.glance</t>
+          <t>angadrataul</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>kevindoerzbacher</t>
+          <t>nicoledesimone11</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>sahana_katzzzz</t>
+          <t>keirabryhan23</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>gabe_heim05</t>
+          <t>devin_tabourn</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>lillani.h</t>
+          <t>lily.shahan</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>manav.p24</t>
+          <t>nournafash</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>mia_tarone21</t>
+          <t>222beza</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>sluttysuthy7</t>
+          <t>dlobo2x_</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>nicoledesimone11</t>
+          <t>nathanacho</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>palaniveluarunmozhi</t>
+          <t>thomas.russini</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ashley.ingoglia</t>
+          <t>natalie1ferdinand1</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>e_n.venters</t>
+          <t>navaerys</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ben_osband</t>
+          <t>neavecasey</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>tia.douglass</t>
+          <t>emmalichtenstein_</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>kelly.p.herrera.7</t>
+          <t>jia_walia</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ericamontgomeryy</t>
+          <t>gaschmies</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>abbyo23</t>
+          <t>leahelisabeth__</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>dinovadmd</t>
+          <t>gauriii.b</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>alishaelll</t>
+          <t>rachel.lunny18</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>rsimo41</t>
+          <t>_jaypatle</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jcinko25</t>
+          <t>mgedance5678</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>what_the.elle</t>
+          <t>avawalsh21</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>meera_mayreddy</t>
+          <t>sean.mo5</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>krush0022</t>
+          <t>the_sundancer</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>akhilkalyann</t>
+          <t>okskiidee</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>boringrehan</t>
+          <t>kate_eriksson_04</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>jfisher_m8</t>
+          <t>miakane</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>rwesh_21</t>
+          <t>bergerryan164</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>olivia.little_</t>
+          <t>aleeza_sk21</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>braden_baxendell</t>
+          <t>carliehaber_</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>guonoe06237</t>
+          <t>mac.slifer</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>micahzdavis</t>
+          <t>kevindoerzbacher</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>stellayu130</t>
+          <t>leena.nahlawi</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>414msm</t>
+          <t>rahuljo28</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>jacobc_34</t>
+          <t>zachalvarez10</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>giannapasc</t>
+          <t>tommyy_joness</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>niallsauer_</t>
+          <t>abby.kleinman16</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>_e33va</t>
+          <t>fleming.mya</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>only.1arin_</t>
+          <t>cpirkle4</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>rylie_banks.01</t>
+          <t>justsophh01</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>diorr.alejandraa</t>
+          <t>tonisenos</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>dev__th</t>
+          <t>elayna.chari</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sahaan_27</t>
+          <t>dakota_turner123</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>sahill.patelll</t>
+          <t>iloveeee.micah</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>devonmichelli</t>
+          <t>kodiesau</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>_rupeshh_1</t>
+          <t>xjadedavisx</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>zzlin._.zz</t>
+          <t>esha_puntambekar</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>kujjeong323</t>
+          <t>fritzy1157</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>santino_c_05</t>
+          <t>camiargueta1</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>mirabellamarciante</t>
+          <t>ricky_li12</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>lexiiwagner</t>
+          <t>melisdikec</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>magnometer</t>
+          <t>oliviarenaldoo</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ricky_li12</t>
+          <t>miaa.sabin</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>justin_melhorn67</t>
+          <t>leo_b_stein</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>keshikak05</t>
+          <t>hadleyhellgren</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>alex_emanga_4</t>
+          <t>demi.heston</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>p_sila_master</t>
+          <t>marleypinskyy</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>anna_m_willard</t>
+          <t>keey1_yang</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>oakers23</t>
+          <t>laura.iglesia10</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>willrallison</t>
+          <t>a_body_of_water_</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>__isabelmacedo</t>
+          <t>alishaelll</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>syd.robinson303</t>
+          <t>sohan.shah1</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>josephalfarano</t>
+          <t>angelina.pagillo</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>nini_c0623</t>
+          <t>saanvitiru</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>tim.salmon10</t>
+          <t>katherinebogler</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>a.gartvig5</t>
+          <t>kla_anon</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>lenny.lk</t>
+          <t>disle_evans</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>amx.n15</t>
+          <t>_abhinavnath</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>_riakulkarni</t>
+          <t>avamaser</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>_.mikhayla_</t>
+          <t>nreger26</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>nickharris2468</t>
+          <t>varshag_14</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>zionmitchell_</t>
+          <t>_juliannadavino</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>bbates2288</t>
+          <t>cc_durham</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>kayley.dorfman</t>
+          <t>evan.s1371</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>maddienelsoonn</t>
-        </is>
-      </c>
-      <c r="B298" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>kpkoch1023</t>
-        </is>
-      </c>
-      <c r="B299" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>liz_scherzer</t>
-        </is>
-      </c>
-      <c r="B300" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>adelaholl</t>
-        </is>
-      </c>
-      <c r="B301" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>sam_viola12</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>luwamyy_</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>ben_madoff</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>ndokaman</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>aman_11_rawal</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>ryleemalseed0805</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>elisa_sneeringer</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>dom_nerone</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>lekhya22</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>jupitersflower_09</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>melisdikec</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>amadeusbelliard</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>reenkelyn</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>isabelllkingg</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>zachcagliuso</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>reaganparkes</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>weirdlildumpling</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>camiargueta1</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>kaytrimble</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>giada.bertolasio</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>aspen_alexis_</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>gmcconnell10</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>_patrick_waldron</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>ally_kaufman7</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>izzy.b_15</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>kate_eriksson_04</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>amethaashetty</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>emily.23.6</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>kylyn_xy</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>jia_walia</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>isabellabiesx</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>k.la_reine</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>freshfrosh_</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>jess.ica_h.uang</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>kartikananthan</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>aye.baebee</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>max_irish_</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>anna.sheely</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>weaver56_04</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>may19327</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>kevin_lynch91</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>abby.kleinman16</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>sarahlizzzy</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>tommyy_joness</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>snigdha_garud</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>ben.dorish</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>abbey.podlucky</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>emilydudzic</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>litzy_j55</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>vivk1600</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>ameliavergara._</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>sydneydrozynski</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>tonya111177</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>anjo_pag23</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>disle_evans</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>ja_me8338</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>nrsemamabear</t>
-        </is>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>eric_lynch0</t>
-        </is>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>tystawarz</t>
-        </is>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>myana_dawn</t>
-        </is>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>emilyshtra</t>
-        </is>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>melanie.walls1</t>
-        </is>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>syd.no.knees</t>
-        </is>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>srkr_g</t>
-        </is>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>cniiceberg</t>
-        </is>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>lilyalgios</t>
-        </is>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>_cherylbrennan</t>
-        </is>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>rahithag</t>
-        </is>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>christie_liuzza</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>bergerryan164</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>rileyk.mann</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>swartleyfowler</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>_abby.e.d</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>mertaylor12</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>kdsonawa_24</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>noahhlee_</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>cytmr33</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>katherinebogler</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>jacobm.916</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>daniel_gurovich</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>t044y</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>lissa.wilson_</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>gwen_alice1</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>victorioussankofa26</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>abbymarshall14</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>ztwang10</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>chasetelegdy</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>avamaser</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>alyse.crown</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>madisonsherwoodd</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>tom.k.ellis</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>arbel_levy</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>kyle.molz04</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>hud_the_son</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>malia.savas</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>angelina.pagillo</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>chlo.meyers</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>olivia_haynes_8</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>sofiamacias._</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>jason_200541</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>ryleebranscum</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>mcmikesell</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>katy.p24</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>melissarayburn_</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>gabby_vino</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>maddiesbinder</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>kadyngeddes</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>_juliannadavino</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>peterrbauman</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>kate.black232</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>asbrn_rn</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>zwestapts</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>samesch10</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>zsully33</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>tony.hoang2005</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>ju_gans</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>emily.fatkin</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>adahwallaceee</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>farrah.wengler</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>hannah.gordish</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>northolomew</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>dana.hanlin</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>nitya_vabbilireddi</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
         <v>0</v>
       </c>
     </row>
